--- a/references/data_description.xlsx
+++ b/references/data_description.xlsx
@@ -627,12 +627,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -647,12 +653,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,16 +961,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="3" max="3" width="3.08984375" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
     <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="82.6328125" bestFit="1" customWidth="1"/>
@@ -990,92 +1000,92 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>42</v>
       </c>
     </row>
